--- a/创客论坛2015/2015创客日活动预算.xlsx
+++ b/创客论坛2015/2015创客日活动预算.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26408"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iCenterStudio/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23480" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,35 +61,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国内创客教育联盟嘉宾食宿与交通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>论坛活动宣传品制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>驻校创客导师授牌制作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>论坛现场活跃气氛所许用品采买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>媒体车马费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>27日晚上创客联盟接待晚宴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>学生创客空间社团活动（27-29日）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27-29日三晚住宿，往返机票（经济舱）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景板（2块），区域划分引导牌（10多块）；胸卡、会议手册、礼品袋、LED租借</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可预见费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般为活动总经费的10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间轴悬挂－现场布置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣传品制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计、制作、安装与人工费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示沙盘与投影－现场布置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论坛（11月28日）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作午餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>28日中午工作午餐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>28日晚上晚宴</t>
+    <t>28日晚宴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -102,67 +125,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学生创客空间社团活动（27-29日）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27-29日三晚住宿，往返机票（经济舱）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景板（2块），区域划分引导牌（10多块）；胸卡、会议手册、礼品袋、LED租借</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请杨建新老师确定人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可预见费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般为活动总经费的10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女性创客论坛（？？）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光雕刻，立体拼接</t>
-    <rPh sb="0" eb="1">
-      <t>ji guang li ti</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>diao ke</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>li ti pin jie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现场设备租用</t>
-    <rPh sb="0" eb="1">
-      <t>xian chang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>she bei</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zu yong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现场同传翻译</t>
-    <rPh sb="0" eb="1">
-      <t>xian chang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tong chuan fan yi</t>
-    </rPh>
+    <t>所需费用待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创新创业教育联盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27晚上和28日中午，布场工作人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟成员代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论坛现场活跃气氛用品采买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27-29日三晚住宿，往返火车票或机票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟企业赞助</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,13 +177,37 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -204,22 +219,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -545,19 +560,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="5" max="5" width="39.83203125" customWidth="1"/>
+    <col min="5" max="5" width="89.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,176 +589,264 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>8</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>30000</v>
-      </c>
-      <c r="D4">
-        <f>B4*C4</f>
-        <v>450000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>9</v>
       </c>
       <c r="B5">
         <v>15</v>
       </c>
       <c r="C5">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="D5">
         <f>B5*C5</f>
+        <v>450000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>8000</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D19" si="0">B6*C6</f>
         <v>120000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6000</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>6000</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>30000</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="D9">
-        <f>B9*C9</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>500</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>1000</v>
-      </c>
-      <c r="D10">
-        <f>B10*C10</f>
-        <v>5000</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>500</v>
-      </c>
-      <c r="D12">
-        <f>B12*C12</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="D20">
+        <v>2000</v>
+      </c>
+      <c r="E20" t="s">
         <v>16</v>
-      </c>
-      <c r="B14">
-        <v>200</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="D14" si="0">B14*C14</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/创客论坛2015/2015创客日活动预算.xlsx
+++ b/创客论坛2015/2015创客日活动预算.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iCenterStudio/Documents/Git Projects/workzone/创客论坛2015/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23480" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23480" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>工作内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +159,30 @@
   </si>
   <si>
     <t>联盟企业赞助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员劳务</t>
+    <rPh sb="0" eb="1">
+      <t>ren yuan lao wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lao wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小计</t>
+    <rPh sb="0" eb="1">
+      <t>xiao ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,12 +258,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -560,19 +594,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
     <col min="5" max="5" width="89.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,17 +623,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -607,7 +641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -625,7 +659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -636,14 +670,14 @@
         <v>8000</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D19" si="0">B6*C6</f>
+        <f t="shared" ref="D6:D22" si="0">B6*C6</f>
         <v>120000</v>
       </c>
       <c r="E6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -661,7 +695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -679,7 +713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -697,7 +731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -712,7 +746,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -727,7 +761,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -745,12 +779,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -768,7 +802,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -780,7 +814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -798,7 +832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -807,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -819,7 +853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -828,25 +862,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>2000</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="D20">
-        <v>2000</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="B22">
+        <v>0.1</v>
+      </c>
+      <c r="C22">
+        <f>SUM(D5:D21)</f>
+        <v>722600</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>72260</v>
+      </c>
+      <c r="E22" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <f>SUM(D2:D22)</f>
+        <v>794860</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>